--- a/zad2.xlsx
+++ b/zad2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\quant_suisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26A7143-B48E-495C-A986-7E4783914D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FAF28-17BE-4710-977D-A51662155E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A91FAE74-1377-419F-B214-B8E5A5EEF122}"/>
   </bookViews>
@@ -21,10 +21,6 @@
     <definedName name="_xlchart.v1.1" hidden="1">'zad2'!$A$2:$A$1001</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'zad2'!$A$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'zad2'!$A$2:$A$1001</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'zad2'!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'zad2'!$A$2:$A$1001</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'zad2'!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'zad2'!$A$2:$A$1001</definedName>
     <definedName name="DaneZewnętrzne_1" localSheetId="0" hidden="1">'zad2'!$A$1:$B$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -109,10 +105,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -132,7 +128,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -170,7 +166,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{95BCC4BA-291D-412C-BA44-49D145674FB8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Column1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -217,7 +213,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Count</cx:v>
+              <cx:v>Value</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -848,7 +844,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3324224" y="2176461"/>
-              <a:ext cx="9934575" cy="5586413"/>
+              <a:ext cx="9982200" cy="5586413"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -896,8 +892,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33A87ED2-798C-47DD-9270-29B7FA25DB4D}" name="zad2" displayName="zad2" ref="A1:B1001" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B1001" xr:uid="{776227C8-03E6-4E08-A451-AA6F93056200}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BEDD453-96BE-42E4-998F-ECD6BD2A1DD9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C8A2CE72-E3E0-417C-8E73-D6620B7B5F3F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0BEDD453-96BE-42E4-998F-ECD6BD2A1DD9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C8A2CE72-E3E0-417C-8E73-D6620B7B5F3F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1202,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E71D635-98B2-4AC0-849D-543794EF66B1}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
